--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.RICK\Desktop\it-alert-newclone\Unity\Assets\Editor\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\it-alert\Unity\Assets\Editor\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49DBDBCF-0C67-4C80-8BD5-D7A1BB434DD8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E79C3877-6482-42CE-A699-E5060926A7CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="296">
   <si>
     <t>Key</t>
   </si>
@@ -811,7 +811,103 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Overzicht</t>
+    <t>SIMULATION_SUMMARY_METRIC_SPOKE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_MOVED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_SENT</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_RECEIVED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVURUSES_USED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANNERS_USED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_KILLED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_WASTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANS_WITH_NO_VIRUSES_FOUND</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURES_USED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_CAPTURED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURE_WITH_NO_VIRUS_CAUGHT</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANALYSERS_USED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATED</t>
+  </si>
+  <si>
+    <t>Spoke</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Transfers Received</t>
+  </si>
+  <si>
+    <t>Transfers Sent</t>
+  </si>
+  <si>
+    <t>Antiviruses Used</t>
+  </si>
+  <si>
+    <t>Scanners Used</t>
+  </si>
+  <si>
+    <t>Viruses Killed</t>
+  </si>
+  <si>
+    <t>Antiviruses Wasted</t>
+  </si>
+  <si>
+    <t>Viruses Found</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_FOUND</t>
+  </si>
+  <si>
+    <t>Scans w/o Viruses Found</t>
+  </si>
+  <si>
+    <t>Capture w/o Virus Caught</t>
+  </si>
+  <si>
+    <t>Captures Used</t>
+  </si>
+  <si>
+    <t>Viruses Captured</t>
+  </si>
+  <si>
+    <t>Analysers Used</t>
+  </si>
+  <si>
+    <t>Antiviruses Created</t>
+  </si>
+  <si>
+    <t>Antivirus Creation Fails</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATION_FAILS</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -893,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -912,6 +1008,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2460,7 +2557,7 @@
         <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -2470,99 +2567,229 @@
       <c r="B97" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
+      <c r="C97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
+      <c r="A110" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-    </row>
-    <row r="113" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-    </row>
-    <row r="114" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
     </row>
-    <row r="115" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
     </row>
-    <row r="116" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
     </row>
-    <row r="118" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
     </row>
-    <row r="119" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
     </row>
-    <row r="120" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
     </row>
-    <row r="121" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
     </row>
-    <row r="122" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
     </row>
-    <row r="123" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
     </row>
-    <row r="124" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
     </row>
-    <row r="125" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
     </row>
-    <row r="126" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
     </row>
-    <row r="127" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
     </row>
-    <row r="128" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
     </row>
     <row r="129" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\it-alert\Unity\Assets\Editor\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ITALERTTEST\Unity\Assets\Editor\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E79C3877-6482-42CE-A699-E5060926A7CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="UILocalizations" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="360">
   <si>
     <t>Key</t>
   </si>
@@ -908,12 +907,204 @@
   </si>
   <si>
     <t>xxxxx</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SPOKE_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SPOKE_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_MOVED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_MOVED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_SENT_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_SENT_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_RECEIVED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVURUSES_USED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANNERS_USED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_KILLED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_WASTED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_FOUND_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANS_WITH_NO_VIRUSES_FOUND_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURES_USED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_CAPTURED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURE_WITH_NO_VIRUS_CAUGHT_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANALYSERS_USED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATED_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATION_FAILS_TITLE</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_RECEIVED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVURUSES_USED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANNERS_USED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_KILLED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_WASTED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_FOUND_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANS_WITH_NO_VIRUSES_FOUND_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURES_USED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_CAPTURED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURE_WITH_NO_VIRUS_CAUGHT_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANALYSERS_USED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATED_FORMATTED</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATION_FAILS_FORMATTED</t>
+  </si>
+  <si>
+    <t>Chatterbox</t>
+  </si>
+  <si>
+    <t>{0} Times Spoken</t>
+  </si>
+  <si>
+    <t>Traveller</t>
+  </si>
+  <si>
+    <t>{0} Nodes Moved</t>
+  </si>
+  <si>
+    <t>Uploader</t>
+  </si>
+  <si>
+    <t>{0} Transfers Sent</t>
+  </si>
+  <si>
+    <t>Downloader</t>
+  </si>
+  <si>
+    <t>{0} Transfers Received</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>{0} Antiviruses Used</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>{0} Scanners Used</t>
+  </si>
+  <si>
+    <t>Eliminator</t>
+  </si>
+  <si>
+    <t>{0} Viruses Removed</t>
+  </si>
+  <si>
+    <t>Spiller</t>
+  </si>
+  <si>
+    <t>{0} Antiviruses Wasted</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>{0} Viruses Found</t>
+  </si>
+  <si>
+    <t>Phisher</t>
+  </si>
+  <si>
+    <t>{0} Times Scanned Without Virus</t>
+  </si>
+  <si>
+    <t>Bug Hunter</t>
+  </si>
+  <si>
+    <t>{0} Captures Used</t>
+  </si>
+  <si>
+    <t>Bug Catcher</t>
+  </si>
+  <si>
+    <t>{0} Viruses Captured</t>
+  </si>
+  <si>
+    <t>Bad Debugger</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>{0} Analysers Used</t>
+  </si>
+  <si>
+    <t>Splicer</t>
+  </si>
+  <si>
+    <t>{0} Antiviruses Created</t>
+  </si>
+  <si>
+    <t>Failed to Capture {0} Times</t>
+  </si>
+  <si>
+    <t>Failed to Create Antivirus {0} Times</t>
+  </si>
+  <si>
+    <t>Blindfire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1102,23 +1293,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1154,23 +1328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1346,16 +1503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" customWidth="1"/>
+    <col min="1" max="1" width="94.36328125" customWidth="1"/>
     <col min="2" max="2" width="51.81640625" customWidth="1"/>
     <col min="3" max="3" width="62.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2583,44 +2740,44 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>278</v>
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C99" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>280</v>
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C100" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>266</v>
+      <c r="A101" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>267</v>
+      <c r="A102" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="C102" t="s">
         <v>295</v>
@@ -2628,10 +2785,10 @@
     </row>
     <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
         <v>295</v>
@@ -2639,21 +2796,21 @@
     </row>
     <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C104" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>270</v>
+      <c r="A105" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s">
         <v>295</v>
@@ -2661,43 +2818,43 @@
     </row>
     <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>271</v>
+      <c r="A107" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>272</v>
+      <c r="A108" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="C108" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>273</v>
+      <c r="A109" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C109" t="s">
         <v>295</v>
@@ -2705,32 +2862,32 @@
     </row>
     <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>275</v>
+      <c r="A111" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>276</v>
+      <c r="A112" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
         <v>295</v>
@@ -2738,154 +2895,410 @@
     </row>
     <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C113" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
+      <c r="A122" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
+      <c r="A126" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-    </row>
-    <row r="129" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-    </row>
-    <row r="130" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-    </row>
-    <row r="131" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-    </row>
-    <row r="132" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-    </row>
-    <row r="133" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-    </row>
-    <row r="134" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-    </row>
-    <row r="135" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-    </row>
-    <row r="136" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-    </row>
-    <row r="137" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-    </row>
-    <row r="138" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-    </row>
-    <row r="139" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-    </row>
-    <row r="140" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-    </row>
-    <row r="141" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-    </row>
-    <row r="142" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-    </row>
-    <row r="143" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-    </row>
-    <row r="144" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-    </row>
-    <row r="145" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-    </row>
-    <row r="146" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C132" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C135" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
     </row>
-    <row r="147" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
     </row>
-    <row r="148" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
     </row>
-    <row r="149" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
     </row>
-    <row r="150" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
     </row>
-    <row r="151" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
     </row>
-    <row r="152" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
     </row>
-    <row r="153" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
     </row>
-    <row r="154" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
     </row>
-    <row r="155" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
     </row>
-    <row r="156" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
     </row>
-    <row r="157" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
     </row>
-    <row r="158" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
     </row>
-    <row r="159" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
     </row>
-    <row r="160" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
     </row>
     <row r="161" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
@@ -5413,6 +5826,96 @@
     </row>
     <row r="1002" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1002" s="12"/>
+    </row>
+    <row r="1003" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1003" s="12"/>
+    </row>
+    <row r="1004" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1004" s="12"/>
+    </row>
+    <row r="1005" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1005" s="12"/>
+    </row>
+    <row r="1006" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1006" s="12"/>
+    </row>
+    <row r="1007" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1007" s="12"/>
+    </row>
+    <row r="1008" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1008" s="12"/>
+    </row>
+    <row r="1009" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1009" s="12"/>
+    </row>
+    <row r="1010" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1010" s="12"/>
+    </row>
+    <row r="1011" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1011" s="12"/>
+    </row>
+    <row r="1012" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1012" s="12"/>
+    </row>
+    <row r="1013" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1013" s="12"/>
+    </row>
+    <row r="1014" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1014" s="12"/>
+    </row>
+    <row r="1015" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1015" s="12"/>
+    </row>
+    <row r="1016" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1016" s="12"/>
+    </row>
+    <row r="1017" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1017" s="12"/>
+    </row>
+    <row r="1018" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1018" s="12"/>
+    </row>
+    <row r="1019" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1019" s="12"/>
+    </row>
+    <row r="1020" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1020" s="12"/>
+    </row>
+    <row r="1021" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1021" s="12"/>
+    </row>
+    <row r="1022" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1022" s="12"/>
+    </row>
+    <row r="1023" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1023" s="12"/>
+    </row>
+    <row r="1024" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1024" s="12"/>
+    </row>
+    <row r="1025" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1025" s="12"/>
+    </row>
+    <row r="1026" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1026" s="12"/>
+    </row>
+    <row r="1027" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1027" s="12"/>
+    </row>
+    <row r="1028" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1028" s="12"/>
+    </row>
+    <row r="1029" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1029" s="12"/>
+    </row>
+    <row r="1030" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1030" s="12"/>
+    </row>
+    <row r="1031" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1031" s="12"/>
+    </row>
+    <row r="1032" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1032" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="392">
   <si>
     <t>Key</t>
   </si>
@@ -1008,97 +1008,193 @@
     <t>Chatterbox</t>
   </si>
   <si>
-    <t>{0} Times Spoken</t>
-  </si>
-  <si>
     <t>Traveller</t>
   </si>
   <si>
-    <t>{0} Nodes Moved</t>
-  </si>
-  <si>
     <t>Uploader</t>
   </si>
   <si>
-    <t>{0} Transfers Sent</t>
-  </si>
-  <si>
     <t>Downloader</t>
   </si>
   <si>
-    <t>{0} Transfers Received</t>
-  </si>
-  <si>
     <t>Surgeon</t>
   </si>
   <si>
-    <t>{0} Antiviruses Used</t>
-  </si>
-  <si>
     <t>Detective</t>
   </si>
   <si>
-    <t>{0} Scanners Used</t>
-  </si>
-  <si>
     <t>Eliminator</t>
   </si>
   <si>
-    <t>{0} Viruses Removed</t>
-  </si>
-  <si>
     <t>Spiller</t>
   </si>
   <si>
-    <t>{0} Antiviruses Wasted</t>
-  </si>
-  <si>
     <t>Locator</t>
   </si>
   <si>
-    <t>{0} Viruses Found</t>
-  </si>
-  <si>
     <t>Phisher</t>
   </si>
   <si>
-    <t>{0} Times Scanned Without Virus</t>
-  </si>
-  <si>
     <t>Bug Hunter</t>
   </si>
   <si>
-    <t>{0} Captures Used</t>
-  </si>
-  <si>
     <t>Bug Catcher</t>
   </si>
   <si>
-    <t>{0} Viruses Captured</t>
-  </si>
-  <si>
     <t>Bad Debugger</t>
   </si>
   <si>
     <t>Scientist</t>
   </si>
   <si>
-    <t>{0} Analysers Used</t>
-  </si>
-  <si>
     <t>Splicer</t>
   </si>
   <si>
-    <t>{0} Antiviruses Created</t>
-  </si>
-  <si>
-    <t>Failed to Capture {0} Times</t>
-  </si>
-  <si>
-    <t>Failed to Create Antivirus {0} Times</t>
-  </si>
-  <si>
     <t>Blindfire</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SPOKE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Spoke Most Times</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_MOVED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Moved Most Nodes</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_SENT_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Sent Most Items</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_TRANSFERS_RECEIVED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Received Most Items</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVURUSES_USED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Used Most Antivirus</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANNERS_USED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Used Most Scanners</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_KILLED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Removed Most Viruses</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_WASTED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Wasted Most Antivirus</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_FOUND_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Found Most Viruses</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_SCANS_WITH_NO_VIRUSES_FOUND_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURES_USED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Used Capture Most</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_VIRUSES_CAPTURED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Captured Most Viruses</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_CAPTURE_WITH_NO_VIRUS_CAUGHT_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANALYSERS_USED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Most Analysers Used</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATED_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Created Most Antivirus</t>
+  </si>
+  <si>
+    <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATION_FAILS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Wasted Most Analyser Actions</t>
+  </si>
+  <si>
+    <t>Wasted Most Capture Actions</t>
+  </si>
+  <si>
+    <t>Wasted Most Scan Actions</t>
+  </si>
+  <si>
+    <t>Spoke {0} Times</t>
+  </si>
+  <si>
+    <t>Moved {0} Nodes</t>
+  </si>
+  <si>
+    <t>Sent {0} Transfers</t>
+  </si>
+  <si>
+    <t>Received {0} Transfers</t>
+  </si>
+  <si>
+    <t>Used {0} Antiviruses</t>
+  </si>
+  <si>
+    <t>Used {0} Scanners</t>
+  </si>
+  <si>
+    <t>Removed {0} Viruses</t>
+  </si>
+  <si>
+    <t>Misused {0} Antiviruses</t>
+  </si>
+  <si>
+    <t>Found {0} Viruses</t>
+  </si>
+  <si>
+    <t>Misused Scanner {0} Times</t>
+  </si>
+  <si>
+    <t>Used {0} Captures</t>
+  </si>
+  <si>
+    <t>Captured {0} Viruses</t>
+  </si>
+  <si>
+    <t>Misused Capture {0} Times</t>
+  </si>
+  <si>
+    <t>Used {0} Analysers</t>
+  </si>
+  <si>
+    <t>Created {0} Antiviruses</t>
+  </si>
+  <si>
+    <t>Misused Analyser {0} Times</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1032"/>
+  <dimension ref="A1:U1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2752,32 +2848,32 @@
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="B101" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B102" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="C101" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="C102" t="s">
         <v>295</v>
@@ -2785,21 +2881,21 @@
     </row>
     <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C103" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>265</v>
+      <c r="A104" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
         <v>295</v>
@@ -2807,21 +2903,21 @@
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>301</v>
+      <c r="A106" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="C106" t="s">
         <v>295</v>
@@ -2829,10 +2925,10 @@
     </row>
     <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
         <v>295</v>
@@ -2840,10 +2936,10 @@
     </row>
     <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C108" t="s">
         <v>295</v>
@@ -2851,21 +2947,21 @@
     </row>
     <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="C109" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>267</v>
+      <c r="A110" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s">
         <v>295</v>
@@ -2873,10 +2969,10 @@
     </row>
     <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
         <v>295</v>
@@ -2884,10 +2980,10 @@
     </row>
     <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
         <v>295</v>
@@ -2895,21 +2991,21 @@
     </row>
     <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="C113" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>304</v>
+      <c r="A114" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
         <v>295</v>
@@ -2917,21 +3013,21 @@
     </row>
     <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C115" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>269</v>
+      <c r="A116" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="C116" t="s">
         <v>295</v>
@@ -2939,10 +3035,10 @@
     </row>
     <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
         <v>295</v>
@@ -2950,21 +3046,21 @@
     </row>
     <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>270</v>
+      <c r="A119" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="C119" t="s">
         <v>295</v>
@@ -2972,10 +3068,10 @@
     </row>
     <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
         <v>295</v>
@@ -2983,21 +3079,21 @@
     </row>
     <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C121" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>286</v>
+      <c r="A122" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
         <v>295</v>
@@ -3005,10 +3101,10 @@
     </row>
     <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
         <v>295</v>
@@ -3016,32 +3112,32 @@
     </row>
     <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C124" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>271</v>
+      <c r="A125" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="C125" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>308</v>
+      <c r="A126" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="C126" t="s">
         <v>295</v>
@@ -3049,21 +3145,21 @@
     </row>
     <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>272</v>
+      <c r="A128" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
         <v>295</v>
@@ -3071,10 +3167,10 @@
     </row>
     <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C129" t="s">
         <v>295</v>
@@ -3082,21 +3178,21 @@
     </row>
     <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>273</v>
+      <c r="A131" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
         <v>295</v>
@@ -3104,10 +3200,10 @@
     </row>
     <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
         <v>295</v>
@@ -3115,10 +3211,10 @@
     </row>
     <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="C133" t="s">
         <v>295</v>
@@ -3126,10 +3222,10 @@
     </row>
     <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" t="s">
         <v>295</v>
@@ -3137,10 +3233,10 @@
     </row>
     <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
         <v>295</v>
@@ -3148,32 +3244,32 @@
     </row>
     <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C136" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>275</v>
+      <c r="A137" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="C137" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>312</v>
+      <c r="A138" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
         <v>295</v>
@@ -3181,21 +3277,21 @@
     </row>
     <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>276</v>
+      <c r="A140" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
         <v>295</v>
@@ -3203,21 +3299,21 @@
     </row>
     <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C141" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>326</v>
+      <c r="A142" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
         <v>295</v>
@@ -3225,10 +3321,10 @@
     </row>
     <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
         <v>295</v>
@@ -3236,10 +3332,10 @@
     </row>
     <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C144" t="s">
         <v>295</v>
@@ -3247,106 +3343,234 @@
     </row>
     <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C155" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C145" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-    </row>
-    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-    </row>
-    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-    </row>
-    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-    </row>
-    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-    </row>
-    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-    </row>
-    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-    </row>
-    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-    </row>
-    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-    </row>
-    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-    </row>
-    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-    </row>
-    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-    </row>
-    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-    </row>
-    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-    </row>
-    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-    </row>
-    <row r="161" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-    </row>
-    <row r="162" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B161" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C161" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
     </row>
-    <row r="163" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
     </row>
-    <row r="164" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
     </row>
-    <row r="165" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
     </row>
-    <row r="166" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
     </row>
-    <row r="167" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
     </row>
-    <row r="168" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
     </row>
-    <row r="169" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
     </row>
-    <row r="170" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
     </row>
-    <row r="171" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
     </row>
-    <row r="172" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
     </row>
-    <row r="173" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
     </row>
-    <row r="174" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
     </row>
-    <row r="175" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
     </row>
-    <row r="176" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
     </row>
     <row r="177" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
@@ -5916,6 +6140,54 @@
     </row>
     <row r="1032" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="12"/>
+    </row>
+    <row r="1033" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1033" s="12"/>
+    </row>
+    <row r="1034" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1034" s="12"/>
+    </row>
+    <row r="1035" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1035" s="12"/>
+    </row>
+    <row r="1036" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1036" s="12"/>
+    </row>
+    <row r="1037" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1037" s="12"/>
+    </row>
+    <row r="1038" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1038" s="12"/>
+    </row>
+    <row r="1039" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1039" s="12"/>
+    </row>
+    <row r="1040" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1040" s="12"/>
+    </row>
+    <row r="1041" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1041" s="12"/>
+    </row>
+    <row r="1042" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1042" s="12"/>
+    </row>
+    <row r="1043" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1043" s="12"/>
+    </row>
+    <row r="1044" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1044" s="12"/>
+    </row>
+    <row r="1045" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1045" s="12"/>
+    </row>
+    <row r="1046" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1046" s="12"/>
+    </row>
+    <row r="1047" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1047" s="12"/>
+    </row>
+    <row r="1048" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1048" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="394">
   <si>
     <t>Key</t>
   </si>
@@ -1195,6 +1195,12 @@
   </si>
   <si>
     <t>Misused Analyser {0} Times</t>
+  </si>
+  <si>
+    <t>SYSTEM_REPORT_TITLE</t>
+  </si>
+  <si>
+    <t>System Report</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048"/>
+  <dimension ref="A1:U1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2814,22 +2820,22 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C97" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C98" t="s">
         <v>295</v>
@@ -2837,10 +2843,10 @@
     </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
         <v>295</v>
@@ -2848,10 +2854,10 @@
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
         <v>295</v>
@@ -2859,32 +2865,32 @@
     </row>
     <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>344</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>297</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C101" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="C102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B103" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="C102" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="C103" t="s">
         <v>295</v>
@@ -2892,10 +2898,10 @@
     </row>
     <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C104" t="s">
         <v>295</v>
@@ -2903,32 +2909,32 @@
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B106" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B107" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="C106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="C107" t="s">
         <v>295</v>
@@ -2936,10 +2942,10 @@
     </row>
     <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C108" t="s">
         <v>295</v>
@@ -2947,10 +2953,10 @@
     </row>
     <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s">
         <v>295</v>
@@ -2958,10 +2964,10 @@
     </row>
     <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
         <v>295</v>
@@ -2969,10 +2975,10 @@
     </row>
     <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
         <v>295</v>
@@ -2980,10 +2986,10 @@
     </row>
     <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
         <v>295</v>
@@ -2991,32 +2997,32 @@
     </row>
     <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B114" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C113" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="C114" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="C115" t="s">
         <v>295</v>
@@ -3024,10 +3030,10 @@
     </row>
     <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C116" t="s">
         <v>295</v>
@@ -3035,10 +3041,10 @@
     </row>
     <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C117" t="s">
         <v>295</v>
@@ -3046,10 +3052,10 @@
     </row>
     <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
         <v>295</v>
@@ -3057,10 +3063,10 @@
     </row>
     <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C119" t="s">
         <v>295</v>
@@ -3068,10 +3074,10 @@
     </row>
     <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
         <v>295</v>
@@ -3079,32 +3085,32 @@
     </row>
     <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B122" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="C122" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="C123" t="s">
         <v>295</v>
@@ -3112,10 +3118,10 @@
     </row>
     <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C124" t="s">
         <v>295</v>
@@ -3123,32 +3129,32 @@
     </row>
     <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B126" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C125" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="C126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B127" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C126" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>335</v>
       </c>
       <c r="C127" t="s">
         <v>295</v>
@@ -3156,10 +3162,10 @@
     </row>
     <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
         <v>295</v>
@@ -3167,10 +3173,10 @@
     </row>
     <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C129" t="s">
         <v>295</v>
@@ -3178,10 +3184,10 @@
     </row>
     <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s">
         <v>295</v>
@@ -3189,10 +3195,10 @@
     </row>
     <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
         <v>295</v>
@@ -3200,10 +3206,10 @@
     </row>
     <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
         <v>295</v>
@@ -3211,32 +3217,32 @@
     </row>
     <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B134" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+      <c r="C134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B135" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C134" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>337</v>
       </c>
       <c r="C135" t="s">
         <v>295</v>
@@ -3244,10 +3250,10 @@
     </row>
     <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s">
         <v>295</v>
@@ -3255,32 +3261,32 @@
     </row>
     <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B138" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C137" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="C138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B139" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="C138" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="C139" t="s">
         <v>295</v>
@@ -3288,10 +3294,10 @@
     </row>
     <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s">
         <v>295</v>
@@ -3299,32 +3305,32 @@
     </row>
     <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B142" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C141" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B143" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C142" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>339</v>
       </c>
       <c r="C143" t="s">
         <v>295</v>
@@ -3332,10 +3338,10 @@
     </row>
     <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
         <v>295</v>
@@ -3343,32 +3349,32 @@
     </row>
     <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C145" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="C146" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="C147" t="s">
         <v>295</v>
@@ -3376,10 +3382,10 @@
     </row>
     <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C148" t="s">
         <v>295</v>
@@ -3387,32 +3393,32 @@
     </row>
     <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B150" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C149" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="C150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B151" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="C150" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>341</v>
       </c>
       <c r="C151" t="s">
         <v>295</v>
@@ -3420,10 +3426,10 @@
     </row>
     <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C152" t="s">
         <v>295</v>
@@ -3431,32 +3437,32 @@
     </row>
     <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B154" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C153" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="C154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B155" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>342</v>
       </c>
       <c r="C155" t="s">
         <v>295</v>
@@ -3464,10 +3470,10 @@
     </row>
     <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C156" t="s">
         <v>295</v>
@@ -3475,10 +3481,10 @@
     </row>
     <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C157" t="s">
         <v>295</v>
@@ -3486,10 +3492,10 @@
     </row>
     <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="C158" t="s">
         <v>295</v>
@@ -3497,10 +3503,10 @@
     </row>
     <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="C159" t="s">
         <v>295</v>
@@ -3508,10 +3514,10 @@
     </row>
     <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C160" t="s">
         <v>295</v>
@@ -3519,17 +3525,25 @@
     </row>
     <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C161" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B162" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C161" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
+      <c r="C162" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="163" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
@@ -6188,6 +6202,9 @@
     </row>
     <row r="1048" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="12"/>
+    </row>
+    <row r="1049" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1049" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ITALERTTEST\Unity\Assets\Editor\Localization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="UILocalizations" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="396">
   <si>
     <t>Key</t>
   </si>
@@ -906,9 +901,6 @@
     <t>SIMULATION_SUMMARY_METRIC_ANTIVIRUSES_CREATION_FAILS</t>
   </si>
   <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
     <t>SIMULATION_SUMMARY_METRIC_SPOKE_TITLE</t>
   </si>
   <si>
@@ -1201,6 +1193,16 @@
   </si>
   <si>
     <t>System Report</t>
+  </si>
+  <si>
+    <t>SERVER_DISCONNECT</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>No longer connected to the game server.
+This may be due to a loss of Internet connection or the game server being stopped.</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1302,6 +1304,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,7 +1402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1608,18 +1613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.36328125" customWidth="1"/>
-    <col min="2" max="2" width="51.81640625" customWidth="1"/>
-    <col min="3" max="3" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1653,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1681,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1695,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1709,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1737,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +1751,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1765,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1779,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1793,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1821,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1830,7 +1835,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1849,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1858,7 +1863,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +1877,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1886,7 +1891,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1900,7 +1905,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -1914,7 +1919,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1942,7 +1947,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1956,7 +1961,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1970,7 +1975,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -1984,7 +1989,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -1998,7 +2003,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -2012,7 +2017,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2031,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -2040,7 +2045,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2054,7 +2059,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -2068,7 +2073,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -2082,7 +2087,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
@@ -2096,7 +2101,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2110,7 +2115,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
@@ -2124,7 +2129,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
@@ -2152,7 +2157,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
@@ -2166,7 +2171,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -2180,7 +2185,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -2194,7 +2199,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
@@ -2208,7 +2213,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2222,7 +2227,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +2241,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>111</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>114</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>115</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>118</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>121</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>124</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>126</v>
       </c>
@@ -2313,7 +2318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>129</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>132</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>135</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>138</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>141</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>144</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>147</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>150</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>153</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>156</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>159</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>162</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>165</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>167</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>170</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>173</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>176</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>179</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>182</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>185</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>188</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>191</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>194</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>197</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>200</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>203</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>206</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>207</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>209</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>211</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>212</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>213</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>214</v>
       </c>
@@ -2676,7 +2681,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>215</v>
       </c>
@@ -2687,7 +2692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>216</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>217</v>
       </c>
@@ -2709,7 +2714,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>218</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>219</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>220</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>221</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>233</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>234</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>235</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>239</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>241</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>261</v>
       </c>
@@ -2816,21 +2821,21 @@
         <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="C97" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>260</v>
       </c>
@@ -2838,10 +2843,10 @@
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -2849,43 +2854,43 @@
         <v>277</v>
       </c>
       <c r="C99" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>344</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>297</v>
-      </c>
       <c r="B102" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>264</v>
       </c>
@@ -2893,43 +2898,43 @@
         <v>278</v>
       </c>
       <c r="C103" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>299</v>
-      </c>
       <c r="B106" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>265</v>
       </c>
@@ -2937,43 +2942,43 @@
         <v>280</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C108" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="B110" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C110" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>266</v>
       </c>
@@ -2981,43 +2986,43 @@
         <v>279</v>
       </c>
       <c r="C111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>351</v>
-      </c>
       <c r="C113" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>267</v>
       </c>
@@ -3025,43 +3030,43 @@
         <v>281</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C116" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>353</v>
-      </c>
       <c r="C117" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C118" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>268</v>
       </c>
@@ -3069,43 +3074,43 @@
         <v>282</v>
       </c>
       <c r="C119" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>355</v>
-      </c>
       <c r="C121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C122" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>269</v>
       </c>
@@ -3113,43 +3118,43 @@
         <v>283</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>357</v>
-      </c>
       <c r="C125" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>270</v>
       </c>
@@ -3157,43 +3162,43 @@
         <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>359</v>
-      </c>
       <c r="C129" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C130" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>286</v>
       </c>
@@ -3201,43 +3206,43 @@
         <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>361</v>
-      </c>
       <c r="C133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C134" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>271</v>
       </c>
@@ -3245,43 +3250,43 @@
         <v>287</v>
       </c>
       <c r="C135" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>272</v>
       </c>
@@ -3289,43 +3294,43 @@
         <v>289</v>
       </c>
       <c r="C139" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>364</v>
-      </c>
       <c r="C141" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C142" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>273</v>
       </c>
@@ -3333,43 +3338,43 @@
         <v>290</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="C145" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>274</v>
       </c>
@@ -3377,43 +3382,43 @@
         <v>288</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>275</v>
       </c>
@@ -3421,43 +3426,43 @@
         <v>291</v>
       </c>
       <c r="C151" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C152" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B153" s="14" t="s">
-        <v>369</v>
-      </c>
       <c r="C153" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>276</v>
       </c>
@@ -3465,43 +3470,43 @@
         <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C156" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B157" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="C157" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C158" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>294</v>
       </c>
@@ -3509,2701 +3514,2709 @@
         <v>293</v>
       </c>
       <c r="C159" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C160" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B161" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>373</v>
-      </c>
       <c r="C161" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C162" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-    </row>
-    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C163" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
     </row>
-    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
     </row>
-    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
     </row>
-    <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
     </row>
-    <row r="168" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
     </row>
-    <row r="169" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
     </row>
-    <row r="170" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
     </row>
-    <row r="171" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
     </row>
-    <row r="172" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
     </row>
-    <row r="173" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
     </row>
-    <row r="174" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
     </row>
-    <row r="175" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
     </row>
-    <row r="176" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
     </row>
-    <row r="177" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
     </row>
-    <row r="178" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
     </row>
-    <row r="179" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
     </row>
-    <row r="180" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
     </row>
-    <row r="181" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
     </row>
-    <row r="182" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
     </row>
-    <row r="183" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
     </row>
-    <row r="184" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
     </row>
-    <row r="185" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
     </row>
-    <row r="186" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
     </row>
-    <row r="187" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
     </row>
-    <row r="188" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
     </row>
-    <row r="189" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
     </row>
-    <row r="190" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
     </row>
-    <row r="191" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
     </row>
-    <row r="192" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
     </row>
-    <row r="193" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
     </row>
-    <row r="194" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
     </row>
-    <row r="195" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
     </row>
-    <row r="196" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
     </row>
-    <row r="197" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
     </row>
-    <row r="198" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
     </row>
-    <row r="199" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
     </row>
-    <row r="200" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
     </row>
-    <row r="201" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
     </row>
-    <row r="202" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
     </row>
-    <row r="203" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
     </row>
-    <row r="204" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
     </row>
-    <row r="205" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
     </row>
-    <row r="206" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
     </row>
-    <row r="207" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
     </row>
-    <row r="208" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
     </row>
-    <row r="209" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
     </row>
-    <row r="210" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
     </row>
-    <row r="211" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
     </row>
-    <row r="212" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
     </row>
-    <row r="213" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
     </row>
-    <row r="214" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
     </row>
-    <row r="215" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
     </row>
-    <row r="216" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
     </row>
-    <row r="217" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
     </row>
-    <row r="218" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
     </row>
-    <row r="219" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
     </row>
-    <row r="220" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
     </row>
-    <row r="221" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
     </row>
-    <row r="222" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
     </row>
-    <row r="224" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
     </row>
-    <row r="225" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
     </row>
-    <row r="226" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
     </row>
-    <row r="227" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
     </row>
-    <row r="228" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
     </row>
-    <row r="229" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
     </row>
-    <row r="230" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
     </row>
-    <row r="231" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
     </row>
-    <row r="232" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
     </row>
-    <row r="233" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
     </row>
-    <row r="234" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
     </row>
-    <row r="235" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
     </row>
-    <row r="236" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
     </row>
-    <row r="237" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
     </row>
-    <row r="238" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
     </row>
-    <row r="239" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
     </row>
-    <row r="240" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
     </row>
-    <row r="241" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
     </row>
-    <row r="242" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
     </row>
-    <row r="243" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
     </row>
-    <row r="244" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
     </row>
-    <row r="245" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
     </row>
-    <row r="246" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
     </row>
-    <row r="247" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
     </row>
-    <row r="248" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
     </row>
-    <row r="249" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
     </row>
-    <row r="250" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
     </row>
-    <row r="251" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
     </row>
-    <row r="252" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
     </row>
-    <row r="253" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
     </row>
-    <row r="254" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
     </row>
-    <row r="257" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
     </row>
-    <row r="258" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
     </row>
-    <row r="259" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
     </row>
-    <row r="260" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
     </row>
-    <row r="261" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
     </row>
-    <row r="262" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
     </row>
-    <row r="263" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
     </row>
-    <row r="264" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
     </row>
-    <row r="265" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
     </row>
-    <row r="266" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
     </row>
-    <row r="267" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
     </row>
-    <row r="268" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
     </row>
-    <row r="269" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
     </row>
-    <row r="270" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
     </row>
-    <row r="271" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
     </row>
-    <row r="272" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
     </row>
-    <row r="273" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
     </row>
-    <row r="274" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
     </row>
-    <row r="275" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
     </row>
-    <row r="276" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
     </row>
-    <row r="277" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
     </row>
-    <row r="278" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
     </row>
-    <row r="279" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
     </row>
-    <row r="280" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
     </row>
-    <row r="281" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
     </row>
-    <row r="282" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
     </row>
-    <row r="283" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
     </row>
-    <row r="284" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
     </row>
-    <row r="285" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
     </row>
-    <row r="286" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
     </row>
-    <row r="287" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
     </row>
-    <row r="288" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
     </row>
-    <row r="289" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
     </row>
-    <row r="290" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
     </row>
-    <row r="291" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
     </row>
-    <row r="292" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
     </row>
-    <row r="293" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
     </row>
-    <row r="294" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
     </row>
-    <row r="295" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
     </row>
-    <row r="296" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
     </row>
-    <row r="297" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
     </row>
-    <row r="298" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
     </row>
-    <row r="299" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
     </row>
-    <row r="300" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
     </row>
-    <row r="301" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
     </row>
-    <row r="302" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
     </row>
-    <row r="303" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
     </row>
-    <row r="304" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
     </row>
-    <row r="305" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
     </row>
-    <row r="306" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
     </row>
-    <row r="307" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
     </row>
-    <row r="308" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
     </row>
-    <row r="309" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
     </row>
-    <row r="310" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
     </row>
-    <row r="311" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
     </row>
-    <row r="312" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
     </row>
-    <row r="313" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
     </row>
-    <row r="314" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
     </row>
-    <row r="315" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
     </row>
-    <row r="316" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
     </row>
-    <row r="317" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
     </row>
-    <row r="318" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
     </row>
-    <row r="319" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
     </row>
-    <row r="320" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
     </row>
-    <row r="321" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
     </row>
-    <row r="322" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
     </row>
-    <row r="323" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
     </row>
-    <row r="324" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
     </row>
-    <row r="325" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
     </row>
-    <row r="326" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
     </row>
-    <row r="327" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
     </row>
-    <row r="328" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
     </row>
-    <row r="329" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
     </row>
-    <row r="330" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
     </row>
-    <row r="331" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
     </row>
-    <row r="332" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
     </row>
-    <row r="333" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
     </row>
-    <row r="334" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
     </row>
-    <row r="335" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
     </row>
-    <row r="336" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
     </row>
-    <row r="337" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
     </row>
-    <row r="338" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
     </row>
-    <row r="339" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
     </row>
-    <row r="340" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
     </row>
-    <row r="341" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
     </row>
-    <row r="342" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
     </row>
-    <row r="343" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
     </row>
-    <row r="344" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
     </row>
-    <row r="345" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
     </row>
-    <row r="346" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
     </row>
-    <row r="347" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
     </row>
-    <row r="348" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
     </row>
-    <row r="349" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="12"/>
     </row>
-    <row r="350" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="12"/>
     </row>
-    <row r="351" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="12"/>
     </row>
-    <row r="352" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="12"/>
     </row>
-    <row r="353" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="12"/>
     </row>
-    <row r="354" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="12"/>
     </row>
-    <row r="355" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="12"/>
     </row>
-    <row r="356" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="12"/>
     </row>
-    <row r="357" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="12"/>
     </row>
-    <row r="358" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="12"/>
     </row>
-    <row r="359" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="12"/>
     </row>
-    <row r="360" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="12"/>
     </row>
-    <row r="361" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="12"/>
     </row>
-    <row r="362" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="12"/>
     </row>
-    <row r="363" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="12"/>
     </row>
-    <row r="364" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="12"/>
     </row>
-    <row r="365" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="12"/>
     </row>
-    <row r="366" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="12"/>
     </row>
-    <row r="367" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="12"/>
     </row>
-    <row r="368" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="12"/>
     </row>
-    <row r="369" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="12"/>
     </row>
-    <row r="370" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="12"/>
     </row>
-    <row r="371" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="12"/>
     </row>
-    <row r="372" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="12"/>
     </row>
-    <row r="373" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="12"/>
     </row>
-    <row r="374" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="12"/>
     </row>
-    <row r="375" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="12"/>
     </row>
-    <row r="376" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="12"/>
     </row>
-    <row r="377" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="12"/>
     </row>
-    <row r="378" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="12"/>
     </row>
-    <row r="379" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="12"/>
     </row>
-    <row r="380" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="12"/>
     </row>
-    <row r="381" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="12"/>
     </row>
-    <row r="382" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="12"/>
     </row>
-    <row r="383" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="12"/>
     </row>
-    <row r="384" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="12"/>
     </row>
-    <row r="385" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="12"/>
     </row>
-    <row r="386" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="12"/>
     </row>
-    <row r="387" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="12"/>
     </row>
-    <row r="388" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="12"/>
     </row>
-    <row r="389" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="12"/>
     </row>
-    <row r="390" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="12"/>
     </row>
-    <row r="391" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="12"/>
     </row>
-    <row r="392" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="12"/>
     </row>
-    <row r="393" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="12"/>
     </row>
-    <row r="394" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="12"/>
     </row>
-    <row r="395" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="12"/>
     </row>
-    <row r="396" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="12"/>
     </row>
-    <row r="397" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
     </row>
-    <row r="398" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="12"/>
     </row>
-    <row r="399" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="12"/>
     </row>
-    <row r="400" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="12"/>
     </row>
-    <row r="401" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="12"/>
     </row>
-    <row r="402" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="12"/>
     </row>
-    <row r="403" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="12"/>
     </row>
-    <row r="404" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="12"/>
     </row>
-    <row r="405" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="12"/>
     </row>
-    <row r="406" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="12"/>
     </row>
-    <row r="407" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="12"/>
     </row>
-    <row r="408" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="12"/>
     </row>
-    <row r="409" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="12"/>
     </row>
-    <row r="410" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="12"/>
     </row>
-    <row r="411" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="12"/>
     </row>
-    <row r="412" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="12"/>
     </row>
-    <row r="413" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="12"/>
     </row>
-    <row r="414" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="12"/>
     </row>
-    <row r="415" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="12"/>
     </row>
-    <row r="416" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="12"/>
     </row>
-    <row r="417" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="12"/>
     </row>
-    <row r="418" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="12"/>
     </row>
-    <row r="419" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="12"/>
     </row>
-    <row r="420" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="12"/>
     </row>
-    <row r="421" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="12"/>
     </row>
-    <row r="422" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="12"/>
     </row>
-    <row r="423" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="12"/>
     </row>
-    <row r="424" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="12"/>
     </row>
-    <row r="425" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="12"/>
     </row>
-    <row r="426" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="12"/>
     </row>
-    <row r="427" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="12"/>
     </row>
-    <row r="428" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="12"/>
     </row>
-    <row r="429" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="12"/>
     </row>
-    <row r="430" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="12"/>
     </row>
-    <row r="431" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="12"/>
     </row>
-    <row r="432" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="12"/>
     </row>
-    <row r="433" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="12"/>
     </row>
-    <row r="893" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="12"/>
     </row>
-    <row r="894" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="12"/>
     </row>
-    <row r="895" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="12"/>
     </row>
-    <row r="896" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="12"/>
     </row>
-    <row r="897" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="12"/>
     </row>
-    <row r="898" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="12"/>
     </row>
-    <row r="899" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="12"/>
     </row>
-    <row r="900" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="12"/>
     </row>
-    <row r="901" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="12"/>
     </row>
-    <row r="902" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="12"/>
     </row>
-    <row r="903" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="12"/>
     </row>
-    <row r="904" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="12"/>
     </row>
-    <row r="905" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="12"/>
     </row>
-    <row r="906" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="12"/>
     </row>
-    <row r="907" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="12"/>
     </row>
-    <row r="908" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="12"/>
     </row>
-    <row r="909" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="12"/>
     </row>
-    <row r="910" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="12"/>
     </row>
-    <row r="911" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="12"/>
     </row>
-    <row r="912" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="12"/>
     </row>
-    <row r="913" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="12"/>
     </row>
-    <row r="914" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="12"/>
     </row>
-    <row r="915" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="12"/>
     </row>
-    <row r="916" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="12"/>
     </row>
-    <row r="917" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="12"/>
     </row>
-    <row r="918" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="12"/>
     </row>
-    <row r="919" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="12"/>
     </row>
-    <row r="920" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="12"/>
     </row>
-    <row r="921" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="12"/>
     </row>
-    <row r="922" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="12"/>
     </row>
-    <row r="923" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="12"/>
     </row>
-    <row r="924" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="12"/>
     </row>
-    <row r="925" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="12"/>
     </row>
-    <row r="926" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="12"/>
     </row>
-    <row r="927" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="12"/>
     </row>
-    <row r="928" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="12"/>
     </row>
-    <row r="929" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="12"/>
     </row>
-    <row r="930" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="12"/>
     </row>
-    <row r="931" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="12"/>
     </row>
-    <row r="932" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="12"/>
     </row>
-    <row r="933" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="12"/>
     </row>
-    <row r="934" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="12"/>
     </row>
-    <row r="935" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="12"/>
     </row>
-    <row r="936" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="12"/>
     </row>
-    <row r="937" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="12"/>
     </row>
-    <row r="938" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="12"/>
     </row>
-    <row r="939" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="12"/>
     </row>
-    <row r="940" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="12"/>
     </row>
-    <row r="941" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="12"/>
     </row>
-    <row r="942" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="12"/>
     </row>
-    <row r="943" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="12"/>
     </row>
-    <row r="944" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="12"/>
     </row>
-    <row r="945" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="12"/>
     </row>
-    <row r="946" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="12"/>
     </row>
-    <row r="947" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="12"/>
     </row>
-    <row r="948" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="12"/>
     </row>
-    <row r="949" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="12"/>
     </row>
-    <row r="950" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="12"/>
     </row>
-    <row r="951" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="12"/>
     </row>
-    <row r="952" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="12"/>
     </row>
-    <row r="953" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="12"/>
     </row>
-    <row r="954" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="12"/>
     </row>
-    <row r="955" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="12"/>
     </row>
-    <row r="956" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="12"/>
     </row>
-    <row r="957" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="12"/>
     </row>
-    <row r="958" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="12"/>
     </row>
-    <row r="959" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="12"/>
     </row>
-    <row r="960" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="12"/>
     </row>
-    <row r="961" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="12"/>
     </row>
-    <row r="962" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="12"/>
     </row>
-    <row r="963" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="12"/>
     </row>
-    <row r="964" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="12"/>
     </row>
-    <row r="965" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="12"/>
     </row>
-    <row r="966" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="12"/>
     </row>
-    <row r="967" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="12"/>
     </row>
-    <row r="968" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="12"/>
     </row>
-    <row r="969" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="12"/>
     </row>
-    <row r="970" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="12"/>
     </row>
-    <row r="971" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="12"/>
     </row>
-    <row r="972" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="12"/>
     </row>
-    <row r="973" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="12"/>
     </row>
-    <row r="974" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="12"/>
     </row>
-    <row r="975" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="12"/>
     </row>
-    <row r="976" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="12"/>
     </row>
-    <row r="977" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="12"/>
     </row>
-    <row r="978" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="12"/>
     </row>
-    <row r="979" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="12"/>
     </row>
-    <row r="980" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="12"/>
     </row>
-    <row r="981" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="12"/>
     </row>
-    <row r="982" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="12"/>
     </row>
-    <row r="983" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="12"/>
     </row>
-    <row r="984" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="12"/>
     </row>
-    <row r="985" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="12"/>
     </row>
-    <row r="986" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="12"/>
     </row>
-    <row r="987" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="12"/>
     </row>
-    <row r="988" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="12"/>
     </row>
-    <row r="989" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="12"/>
     </row>
-    <row r="990" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="12"/>
     </row>
-    <row r="991" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="12"/>
     </row>
-    <row r="992" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="12"/>
     </row>
-    <row r="993" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="12"/>
     </row>
-    <row r="994" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="12"/>
     </row>
-    <row r="995" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="12"/>
     </row>
-    <row r="996" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="12"/>
     </row>
-    <row r="997" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="12"/>
     </row>
-    <row r="998" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="12"/>
     </row>
-    <row r="999" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="12"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="12"/>
     </row>
-    <row r="1001" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="12"/>
     </row>
-    <row r="1002" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="12"/>
     </row>
-    <row r="1003" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="12"/>
     </row>
-    <row r="1004" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="12"/>
     </row>
-    <row r="1005" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="12"/>
     </row>
-    <row r="1006" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="12"/>
     </row>
-    <row r="1007" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1007" s="12"/>
     </row>
-    <row r="1008" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1008" s="12"/>
     </row>
-    <row r="1009" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1009" s="12"/>
     </row>
-    <row r="1010" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1010" s="12"/>
     </row>
-    <row r="1011" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1011" s="12"/>
     </row>
-    <row r="1012" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1012" s="12"/>
     </row>
-    <row r="1013" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1013" s="12"/>
     </row>
-    <row r="1014" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1014" s="12"/>
     </row>
-    <row r="1015" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1015" s="12"/>
     </row>
-    <row r="1016" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1016" s="12"/>
     </row>
-    <row r="1017" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1017" s="12"/>
     </row>
-    <row r="1018" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1018" s="12"/>
     </row>
-    <row r="1019" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1019" s="12"/>
     </row>
-    <row r="1020" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1020" s="12"/>
     </row>
-    <row r="1021" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1021" s="12"/>
     </row>
-    <row r="1022" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1022" s="12"/>
     </row>
-    <row r="1023" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1023" s="12"/>
     </row>
-    <row r="1024" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1024" s="12"/>
     </row>
-    <row r="1025" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1025" s="12"/>
     </row>
-    <row r="1026" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1026" s="12"/>
     </row>
-    <row r="1027" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1027" s="12"/>
     </row>
-    <row r="1028" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1028" s="12"/>
     </row>
-    <row r="1029" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1029" s="12"/>
     </row>
-    <row r="1030" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1030" s="12"/>
     </row>
-    <row r="1031" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1031" s="12"/>
     </row>
-    <row r="1032" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1032" s="12"/>
     </row>
-    <row r="1033" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1033" s="12"/>
     </row>
-    <row r="1034" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1034" s="12"/>
     </row>
-    <row r="1035" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1035" s="12"/>
     </row>
-    <row r="1036" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1036" s="12"/>
     </row>
-    <row r="1037" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1037" s="12"/>
     </row>
-    <row r="1038" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1038" s="12"/>
     </row>
-    <row r="1039" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1039" s="12"/>
     </row>
-    <row r="1040" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1040" s="12"/>
     </row>
-    <row r="1041" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1041" s="12"/>
     </row>
-    <row r="1042" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1042" s="12"/>
     </row>
-    <row r="1043" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1043" s="12"/>
     </row>
-    <row r="1044" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1044" s="12"/>
     </row>
-    <row r="1045" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1045" s="12"/>
     </row>
-    <row r="1046" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1046" s="12"/>
     </row>
-    <row r="1047" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1047" s="12"/>
     </row>
-    <row r="1048" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1048" s="12"/>
     </row>
-    <row r="1049" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1049" s="12"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ITALERTTEST\Unity\Assets\Editor\Localization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="UILocalizations" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="400">
   <si>
     <t>Key</t>
   </si>
@@ -1203,6 +1208,18 @@
   <si>
     <t>No longer connected to the game server.
 This may be due to a loss of Internet connection or the game server being stopped.</t>
+  </si>
+  <si>
+    <t>GAME_OVER_MULTIPLIER</t>
+  </si>
+  <si>
+    <t>GAME_OVER_FINAL_SCORE</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Final Score</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1402,7 +1419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,17 +1631,17 @@
   <dimension ref="A1:U1049"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.453125" customWidth="1"/>
+    <col min="2" max="2" width="51.81640625" customWidth="1"/>
+    <col min="3" max="3" width="62.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1670,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1667,7 +1684,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1698,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1712,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1726,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1723,7 +1740,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1754,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1768,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1782,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1796,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1810,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +1824,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1838,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1835,7 +1852,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1866,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1880,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +1894,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1908,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1905,7 +1922,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +1936,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1950,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1947,7 +1964,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1961,7 +1978,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1975,7 +1992,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -1989,7 +2006,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2003,7 +2020,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -2017,7 +2034,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
@@ -2031,7 +2048,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -2045,7 +2062,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2059,7 +2076,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -2073,7 +2090,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -2087,7 +2104,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2118,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2115,7 +2132,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
@@ -2129,7 +2146,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
@@ -2143,7 +2160,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
@@ -2157,7 +2174,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
@@ -2171,7 +2188,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -2185,7 +2202,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -2199,7 +2216,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
@@ -2213,7 +2230,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2227,7 +2244,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
@@ -2241,7 +2258,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>111</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>114</v>
       </c>
@@ -2263,7 +2280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>115</v>
       </c>
@@ -2274,7 +2291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>118</v>
       </c>
@@ -2285,7 +2302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>121</v>
       </c>
@@ -2296,7 +2313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>124</v>
       </c>
@@ -2307,7 +2324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>126</v>
       </c>
@@ -2318,7 +2335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>129</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>132</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>135</v>
       </c>
@@ -2351,7 +2368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>138</v>
       </c>
@@ -2362,7 +2379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>141</v>
       </c>
@@ -2373,7 +2390,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>144</v>
       </c>
@@ -2384,7 +2401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>147</v>
       </c>
@@ -2395,7 +2412,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>150</v>
       </c>
@@ -2406,7 +2423,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>153</v>
       </c>
@@ -2417,7 +2434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>156</v>
       </c>
@@ -2428,7 +2445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>159</v>
       </c>
@@ -2439,7 +2456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>162</v>
       </c>
@@ -2450,7 +2467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>165</v>
       </c>
@@ -2461,7 +2478,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>167</v>
       </c>
@@ -2472,7 +2489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>170</v>
       </c>
@@ -2483,7 +2500,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>173</v>
       </c>
@@ -2494,7 +2511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>176</v>
       </c>
@@ -2505,7 +2522,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>179</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>182</v>
       </c>
@@ -2527,7 +2544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>185</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>188</v>
       </c>
@@ -2549,7 +2566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2577,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>194</v>
       </c>
@@ -2571,7 +2588,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>197</v>
       </c>
@@ -2582,7 +2599,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>200</v>
       </c>
@@ -2593,7 +2610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>203</v>
       </c>
@@ -2604,7 +2621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>206</v>
       </c>
@@ -2615,7 +2632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>207</v>
       </c>
@@ -2626,7 +2643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>209</v>
       </c>
@@ -2637,7 +2654,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>211</v>
       </c>
@@ -2648,7 +2665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>212</v>
       </c>
@@ -2659,7 +2676,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>213</v>
       </c>
@@ -2670,7 +2687,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>214</v>
       </c>
@@ -2681,7 +2698,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>215</v>
       </c>
@@ -2692,7 +2709,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>216</v>
       </c>
@@ -2703,7 +2720,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>217</v>
       </c>
@@ -2714,7 +2731,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>218</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>219</v>
       </c>
@@ -2736,7 +2753,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>220</v>
       </c>
@@ -2747,7 +2764,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>221</v>
       </c>
@@ -2758,7 +2775,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>233</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>234</v>
       </c>
@@ -2780,7 +2797,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>235</v>
       </c>
@@ -2791,7 +2808,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>239</v>
       </c>
@@ -2802,7 +2819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>241</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>261</v>
       </c>
@@ -2824,7 +2841,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>391</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>260</v>
       </c>
@@ -2846,7 +2863,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -2857,7 +2874,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>295</v>
       </c>
@@ -2868,7 +2885,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>343</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>264</v>
       </c>
@@ -2901,7 +2918,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>297</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>345</v>
       </c>
@@ -2923,7 +2940,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>298</v>
       </c>
@@ -2934,7 +2951,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>265</v>
       </c>
@@ -2945,7 +2962,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>299</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>347</v>
       </c>
@@ -2967,7 +2984,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>300</v>
       </c>
@@ -2978,7 +2995,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>266</v>
       </c>
@@ -2989,7 +3006,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>301</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>349</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>314</v>
       </c>
@@ -3022,7 +3039,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>267</v>
       </c>
@@ -3033,7 +3050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>302</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>351</v>
       </c>
@@ -3055,7 +3072,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>315</v>
       </c>
@@ -3066,7 +3083,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>268</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>303</v>
       </c>
@@ -3088,7 +3105,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>353</v>
       </c>
@@ -3099,7 +3116,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>316</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>269</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>304</v>
       </c>
@@ -3132,7 +3149,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>355</v>
       </c>
@@ -3143,7 +3160,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>317</v>
       </c>
@@ -3154,7 +3171,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>270</v>
       </c>
@@ -3165,7 +3182,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>305</v>
       </c>
@@ -3176,7 +3193,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>357</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>318</v>
       </c>
@@ -3198,7 +3215,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>286</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>306</v>
       </c>
@@ -3220,7 +3237,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>359</v>
       </c>
@@ -3231,7 +3248,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>319</v>
       </c>
@@ -3242,7 +3259,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>271</v>
       </c>
@@ -3253,7 +3270,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>307</v>
       </c>
@@ -3264,7 +3281,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>361</v>
       </c>
@@ -3275,7 +3292,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>320</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>272</v>
       </c>
@@ -3297,7 +3314,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>308</v>
       </c>
@@ -3308,7 +3325,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>362</v>
       </c>
@@ -3319,7 +3336,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>321</v>
       </c>
@@ -3330,7 +3347,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>273</v>
       </c>
@@ -3341,7 +3358,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>309</v>
       </c>
@@ -3352,7 +3369,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>364</v>
       </c>
@@ -3363,7 +3380,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>322</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>274</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>310</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>366</v>
       </c>
@@ -3407,7 +3424,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>323</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>275</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>311</v>
       </c>
@@ -3440,7 +3457,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>367</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>324</v>
       </c>
@@ -3462,7 +3479,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>276</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>312</v>
       </c>
@@ -3484,7 +3501,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>369</v>
       </c>
@@ -3495,7 +3512,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>325</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>294</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>313</v>
       </c>
@@ -3528,7 +3545,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>371</v>
       </c>
@@ -3539,7 +3556,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>326</v>
       </c>
@@ -3550,7 +3567,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>393</v>
       </c>
@@ -3561,2662 +3578,2678 @@
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="12"/>
-    </row>
-    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="12"/>
-    </row>
-    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C164" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C165" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
     </row>
-    <row r="167" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
     </row>
-    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
     </row>
-    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
     </row>
-    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
     </row>
-    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
     </row>
-    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
     </row>
-    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
     </row>
-    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
     </row>
-    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
     </row>
-    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
     </row>
-    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
     </row>
-    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
     </row>
-    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
     </row>
-    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
     </row>
-    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
     </row>
-    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
     </row>
-    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
     </row>
-    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
     </row>
-    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
     </row>
-    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
     </row>
-    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
     </row>
-    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
     </row>
-    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
     </row>
-    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
     </row>
-    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
     </row>
-    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
     </row>
-    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
     </row>
-    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
     </row>
-    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
     </row>
-    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
     </row>
-    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
     </row>
-    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
     </row>
-    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
     </row>
-    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
     </row>
-    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
     </row>
-    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
     </row>
-    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
     </row>
-    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
     </row>
-    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
     </row>
-    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
     </row>
-    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
     </row>
-    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
     </row>
-    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
     </row>
-    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
     </row>
-    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
     </row>
-    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
     </row>
-    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
     </row>
-    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
     </row>
-    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
     </row>
-    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
     </row>
-    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
     </row>
-    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
     </row>
-    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
     </row>
-    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
     </row>
-    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
     </row>
-    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
     </row>
-    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
     </row>
-    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
     </row>
-    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
     </row>
-    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
     </row>
-    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
     </row>
-    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
     </row>
-    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
     </row>
-    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
     </row>
-    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
     </row>
-    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
     </row>
-    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
     </row>
-    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
     </row>
-    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
     </row>
-    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
     </row>
-    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
     </row>
-    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
     </row>
-    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
     </row>
-    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
     </row>
-    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
     </row>
-    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
     </row>
-    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
     </row>
-    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
     </row>
-    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
     </row>
-    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
     </row>
-    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
     </row>
-    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
     </row>
-    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
     </row>
-    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
     </row>
-    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
     </row>
-    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
     </row>
-    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
     </row>
-    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
     </row>
-    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
     </row>
-    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
     </row>
-    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
     </row>
-    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
     </row>
-    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
     </row>
-    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
     </row>
-    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
     </row>
-    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
     </row>
-    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
     </row>
-    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
     </row>
-    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
     </row>
-    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
     </row>
-    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
     </row>
-    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
     </row>
-    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
     </row>
-    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
     </row>
-    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
     </row>
-    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
     </row>
-    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
     </row>
-    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
     </row>
-    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
     </row>
-    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
     </row>
-    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
     </row>
-    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
     </row>
-    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
     </row>
-    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
     </row>
-    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
     </row>
-    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
     </row>
-    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
     </row>
-    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
     </row>
-    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
     </row>
-    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
     </row>
-    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
     </row>
-    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
     </row>
-    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
     </row>
-    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
     </row>
-    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
     </row>
-    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
     </row>
-    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
     </row>
-    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
     </row>
-    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
     </row>
-    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
     </row>
-    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
     </row>
-    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
     </row>
-    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
     </row>
-    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
     </row>
-    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
     </row>
-    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
     </row>
-    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
     </row>
-    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
     </row>
-    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
     </row>
-    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
     </row>
-    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
     </row>
-    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
     </row>
-    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
     </row>
-    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
     </row>
-    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
     </row>
-    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
     </row>
-    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
     </row>
-    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
     </row>
-    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
     </row>
-    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
     </row>
-    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
     </row>
-    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
     </row>
-    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
     </row>
-    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
     </row>
-    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
     </row>
-    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
     </row>
-    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
     </row>
-    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
     </row>
-    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
     </row>
-    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
     </row>
-    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
     </row>
-    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
     </row>
-    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
     </row>
-    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
     </row>
-    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
     </row>
-    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
     </row>
-    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
     </row>
-    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
     </row>
-    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
     </row>
-    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
     </row>
-    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
     </row>
-    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
     </row>
-    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
     </row>
-    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
     </row>
-    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
     </row>
-    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
     </row>
-    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
     </row>
-    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
     </row>
-    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
     </row>
-    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
     </row>
-    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
     </row>
-    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
     </row>
-    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
     </row>
-    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
     </row>
-    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
     </row>
-    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
     </row>
-    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
     </row>
-    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
     </row>
-    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
     </row>
-    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
     </row>
-    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
     </row>
-    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
     </row>
-    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
     </row>
-    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
     </row>
-    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
     </row>
-    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
     </row>
-    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
     </row>
-    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
     </row>
-    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
     </row>
-    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
     </row>
-    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
     </row>
-    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
     </row>
-    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
     </row>
-    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
     </row>
-    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
     </row>
-    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
     </row>
-    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
     </row>
-    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
     </row>
-    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
     </row>
-    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
     </row>
-    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
     </row>
-    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
     </row>
-    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
     </row>
-    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
     </row>
-    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
     </row>
-    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
     </row>
-    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
     </row>
-    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
     </row>
-    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
     </row>
-    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
     </row>
-    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
     </row>
-    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
     </row>
-    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
     </row>
-    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
     </row>
-    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
     </row>
-    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
     </row>
-    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
     </row>
-    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
     </row>
-    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
     </row>
-    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
     </row>
-    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
     </row>
-    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
     </row>
-    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
     </row>
-    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
     </row>
-    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
     </row>
-    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
     </row>
-    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
     </row>
-    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
     </row>
-    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
     </row>
-    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
     </row>
-    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
     </row>
-    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
     </row>
-    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
     </row>
-    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
     </row>
-    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
     </row>
-    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
     </row>
-    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
     </row>
-    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
     </row>
-    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
     </row>
-    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
     </row>
-    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
     </row>
-    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
     </row>
-    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
     </row>
-    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
     </row>
-    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
     </row>
-    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
     </row>
-    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
     </row>
-    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
     </row>
-    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
     </row>
-    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
     </row>
-    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
     </row>
-    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
     </row>
-    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
     </row>
-    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="12"/>
     </row>
-    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="12"/>
     </row>
-    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="12"/>
     </row>
-    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="12"/>
     </row>
-    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="12"/>
     </row>
-    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="12"/>
     </row>
-    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="12"/>
     </row>
-    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="12"/>
     </row>
-    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="12"/>
     </row>
-    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="12"/>
     </row>
-    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="12"/>
     </row>
-    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="12"/>
     </row>
-    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="12"/>
     </row>
-    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="12"/>
     </row>
-    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="12"/>
     </row>
-    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="12"/>
     </row>
-    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="12"/>
     </row>
-    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="12"/>
     </row>
-    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="12"/>
     </row>
-    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="12"/>
     </row>
-    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="12"/>
     </row>
-    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="12"/>
     </row>
-    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="12"/>
     </row>
-    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="12"/>
     </row>
-    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="12"/>
     </row>
-    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="12"/>
     </row>
-    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="12"/>
     </row>
-    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="12"/>
     </row>
-    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="12"/>
     </row>
-    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="12"/>
     </row>
-    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="12"/>
     </row>
-    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="12"/>
     </row>
-    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="12"/>
     </row>
-    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="12"/>
     </row>
-    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="12"/>
     </row>
-    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="12"/>
     </row>
-    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="12"/>
     </row>
-    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="12"/>
     </row>
-    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="12"/>
     </row>
-    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="12"/>
     </row>
-    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="12"/>
     </row>
-    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="12"/>
     </row>
-    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="12"/>
     </row>
-    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="12"/>
     </row>
-    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="12"/>
     </row>
-    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="12"/>
     </row>
-    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="12"/>
     </row>
-    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="12"/>
     </row>
-    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="12"/>
     </row>
-    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="12"/>
     </row>
-    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="12"/>
     </row>
-    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="12"/>
     </row>
-    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="12"/>
     </row>
-    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="12"/>
     </row>
-    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="12"/>
     </row>
-    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="12"/>
     </row>
-    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="12"/>
     </row>
-    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="12"/>
     </row>
-    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="12"/>
     </row>
-    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="12"/>
     </row>
-    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="12"/>
     </row>
-    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="12"/>
     </row>
-    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="12"/>
     </row>
-    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="12"/>
     </row>
-    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="12"/>
     </row>
-    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="12"/>
     </row>
-    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="12"/>
     </row>
-    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="12"/>
     </row>
-    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="12"/>
     </row>
-    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="12"/>
     </row>
-    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="12"/>
     </row>
-    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="12"/>
     </row>
-    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="12"/>
     </row>
-    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="12"/>
     </row>
-    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="12"/>
     </row>
-    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="12"/>
     </row>
-    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="12"/>
     </row>
-    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="12"/>
     </row>
-    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="12"/>
     </row>
-    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="12"/>
     </row>
-    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="12"/>
     </row>
-    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="12"/>
     </row>
-    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="12"/>
     </row>
-    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="12"/>
     </row>
-    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="12"/>
     </row>
-    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="12"/>
     </row>
-    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="12"/>
     </row>
-    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="12"/>
     </row>
-    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="12"/>
     </row>
-    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="12"/>
     </row>
-    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="12"/>
     </row>
-    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="12"/>
     </row>
-    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="12"/>
     </row>
-    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="12"/>
     </row>
-    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="12"/>
     </row>
-    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="12"/>
     </row>
-    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="12"/>
     </row>
-    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="12"/>
     </row>
-    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="12"/>
     </row>
-    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="12"/>
     </row>
-    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="12"/>
     </row>
-    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="12"/>
     </row>
-    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="12"/>
     </row>
-    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="12"/>
     </row>
-    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="12"/>
     </row>
-    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="12"/>
     </row>
-    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="12"/>
     </row>
-    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="12"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="12"/>
     </row>
-    <row r="1001" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="12"/>
     </row>
-    <row r="1002" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1002" s="12"/>
     </row>
-    <row r="1003" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1003" s="12"/>
     </row>
-    <row r="1004" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1004" s="12"/>
     </row>
-    <row r="1005" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1005" s="12"/>
     </row>
-    <row r="1006" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1006" s="12"/>
     </row>
-    <row r="1007" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1007" s="12"/>
     </row>
-    <row r="1008" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1008" s="12"/>
     </row>
-    <row r="1009" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1009" s="12"/>
     </row>
-    <row r="1010" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="12"/>
     </row>
-    <row r="1011" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1011" s="12"/>
     </row>
-    <row r="1012" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1012" s="12"/>
     </row>
-    <row r="1013" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1013" s="12"/>
     </row>
-    <row r="1014" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1014" s="12"/>
     </row>
-    <row r="1015" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1015" s="12"/>
     </row>
-    <row r="1016" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1016" s="12"/>
     </row>
-    <row r="1017" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1017" s="12"/>
     </row>
-    <row r="1018" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1018" s="12"/>
     </row>
-    <row r="1019" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1019" s="12"/>
     </row>
-    <row r="1020" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1020" s="12"/>
     </row>
-    <row r="1021" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1021" s="12"/>
     </row>
-    <row r="1022" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1022" s="12"/>
     </row>
-    <row r="1023" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1023" s="12"/>
     </row>
-    <row r="1024" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="12"/>
     </row>
-    <row r="1025" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="12"/>
     </row>
-    <row r="1026" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="12"/>
     </row>
-    <row r="1027" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="12"/>
     </row>
-    <row r="1028" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="12"/>
     </row>
-    <row r="1029" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="12"/>
     </row>
-    <row r="1030" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1030" s="12"/>
     </row>
-    <row r="1031" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1031" s="12"/>
     </row>
-    <row r="1032" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="12"/>
     </row>
-    <row r="1033" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="12"/>
     </row>
-    <row r="1034" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1034" s="12"/>
     </row>
-    <row r="1035" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="12"/>
     </row>
-    <row r="1036" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1036" s="12"/>
     </row>
-    <row r="1037" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="12"/>
     </row>
-    <row r="1038" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="12"/>
     </row>
-    <row r="1039" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="12"/>
     </row>
-    <row r="1040" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="12"/>
     </row>
-    <row r="1041" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="12"/>
     </row>
-    <row r="1042" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="12"/>
     </row>
-    <row r="1043" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1043" s="12"/>
     </row>
-    <row r="1044" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="12"/>
     </row>
-    <row r="1045" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="12"/>
     </row>
-    <row r="1046" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1046" s="12"/>
     </row>
-    <row r="1047" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="12"/>
     </row>
-    <row r="1048" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="12"/>
     </row>
-    <row r="1049" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1049" s="12"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -288,12 +288,6 @@
     <t>LOBBY_BUTTON_COLOUR</t>
   </si>
   <si>
-    <t>Change Colour</t>
-  </si>
-  <si>
-    <t>Verander Kleur</t>
-  </si>
-  <si>
     <t>LOBBY_BUTTON_READY</t>
   </si>
   <si>
@@ -400,12 +394,6 @@
   </si>
   <si>
     <t>COLOUR_PICKER_LABEL_TITLE</t>
-  </si>
-  <si>
-    <t>Change Player Colour</t>
-  </si>
-  <si>
-    <t>Verander Kleur Speler</t>
   </si>
   <si>
     <t>COLOUR_PICKER_BUTTON_CANCEL</t>
@@ -1220,13 +1208,25 @@
   </si>
   <si>
     <t>Final Score</t>
+  </si>
+  <si>
+    <t>Change Icon</t>
+  </si>
+  <si>
+    <t>Verander Icoon</t>
+  </si>
+  <si>
+    <t>Change Player Icon</t>
+  </si>
+  <si>
+    <t>Verander Icoon Speler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1245,8 +1245,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,6 +1264,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1298,10 +1310,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1324,8 +1337,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1630,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2146,15 +2161,15 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>396</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2162,13 +2177,13 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2176,13 +2191,13 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2190,13 +2205,13 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2204,13 +2219,13 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2218,13 +2233,13 @@
     </row>
     <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2232,13 +2247,13 @@
     </row>
     <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2246,13 +2261,13 @@
     </row>
     <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2260,18 +2275,18 @@
     </row>
     <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>62</v>
@@ -2282,348 +2297,348 @@
     </row>
     <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>128</v>
+      <c r="B50" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>62</v>
@@ -2634,970 +2649,970 @@
     </row>
     <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C96" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C97" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>295</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C100" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>343</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>296</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C110" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C112" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C113" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C114" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C115" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C116" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C118" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C120" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="C122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C127" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C129" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C130" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C131" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C133" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C134" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C135" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C136" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C137" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C138" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C140" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C141" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C142" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C143" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C145" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C146" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C147" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C148" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C150" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C152" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C153" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C154" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C155" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C157" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C158" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C159" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C161" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C162" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
+      <c r="C164" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B165" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C163" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C164" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C165" t="s">
-        <v>394</v>
+      <c r="C165" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ITALERTTEST\Unity\Assets\Editor\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\it-alert\Unity\Assets\Editor\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34338979-2E37-4881-8A10-0FF33431DD2B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UILocalizations" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="403">
   <si>
     <t>Key</t>
   </si>
@@ -1220,12 +1221,21 @@
   </si>
   <si>
     <t>Verander Icoon Speler</t>
+  </si>
+  <si>
+    <t>VOICE_PRESS_TO_TALK</t>
+  </si>
+  <si>
+    <t>Druk hier om te praten</t>
+  </si>
+  <si>
+    <t>Press here to talk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1432,6 +1442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1467,6 +1494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1642,11 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1049"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2078,14 +2122,14 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>73</v>
+      <c r="A30" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2093,27 +2137,27 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>77</v>
+      <c r="A32" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2121,27 +2165,27 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>83</v>
+      <c r="A34" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2149,41 +2193,41 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>397</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>396</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2191,13 +2235,13 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2205,13 +2249,13 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2219,27 +2263,27 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2247,13 +2291,13 @@
     </row>
     <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2261,13 +2305,13 @@
     </row>
     <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2275,615 +2319,618 @@
     </row>
     <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+    <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C84" t="s">
-        <v>243</v>
+        <v>220</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B96" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+    <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="13" t="s">
+      <c r="C97" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+      <c r="C98" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>259</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>390</v>
@@ -2891,10 +2938,10 @@
     </row>
     <row r="100" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>390</v>
@@ -2902,10 +2949,10 @@
     </row>
     <row r="101" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>390</v>
@@ -2913,32 +2960,32 @@
     </row>
     <row r="102" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B103" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
+      <c r="C103" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B104" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>324</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>390</v>
@@ -2946,10 +2993,10 @@
     </row>
     <row r="105" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>390</v>
@@ -2957,32 +3004,32 @@
     </row>
     <row r="106" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B107" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C106" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
+      <c r="C107" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B108" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>325</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>390</v>
@@ -2990,10 +3037,10 @@
     </row>
     <row r="109" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>390</v>
@@ -3001,10 +3048,10 @@
     </row>
     <row r="110" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>390</v>
@@ -3012,10 +3059,10 @@
     </row>
     <row r="111" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>390</v>
@@ -3023,10 +3070,10 @@
     </row>
     <row r="112" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>390</v>
@@ -3034,10 +3081,10 @@
     </row>
     <row r="113" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>390</v>
@@ -3045,32 +3092,32 @@
     </row>
     <row r="114" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="12" t="s">
+      <c r="C115" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B116" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>390</v>
@@ -3078,10 +3125,10 @@
     </row>
     <row r="117" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>390</v>
@@ -3089,10 +3136,10 @@
     </row>
     <row r="118" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>390</v>
@@ -3100,10 +3147,10 @@
     </row>
     <row r="119" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>390</v>
@@ -3111,10 +3158,10 @@
     </row>
     <row r="120" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>390</v>
@@ -3122,10 +3169,10 @@
     </row>
     <row r="121" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>390</v>
@@ -3133,32 +3180,32 @@
     </row>
     <row r="122" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="12" t="s">
+      <c r="C123" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B124" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>390</v>
@@ -3166,10 +3213,10 @@
     </row>
     <row r="125" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>390</v>
@@ -3177,32 +3224,32 @@
     </row>
     <row r="126" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B127" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="12" t="s">
+      <c r="C127" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B128" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>390</v>
@@ -3210,10 +3257,10 @@
     </row>
     <row r="129" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>390</v>
@@ -3221,10 +3268,10 @@
     </row>
     <row r="130" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>390</v>
@@ -3232,10 +3279,10 @@
     </row>
     <row r="131" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>390</v>
@@ -3243,10 +3290,10 @@
     </row>
     <row r="132" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>390</v>
@@ -3254,10 +3301,10 @@
     </row>
     <row r="133" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>390</v>
@@ -3265,32 +3312,32 @@
     </row>
     <row r="134" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B135" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="12" t="s">
+      <c r="C135" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B136" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>390</v>
@@ -3298,10 +3345,10 @@
     </row>
     <row r="137" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>390</v>
@@ -3309,32 +3356,32 @@
     </row>
     <row r="138" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B139" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="12" t="s">
+      <c r="C139" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B140" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>333</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>390</v>
@@ -3342,10 +3389,10 @@
     </row>
     <row r="141" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>390</v>
@@ -3353,32 +3400,32 @@
     </row>
     <row r="142" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B143" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C142" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="12" t="s">
+      <c r="C143" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B144" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>390</v>
@@ -3386,10 +3433,10 @@
     </row>
     <row r="145" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>390</v>
@@ -3397,32 +3444,32 @@
     </row>
     <row r="146" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C146" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
+      <c r="C147" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B148" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>335</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>390</v>
@@ -3430,10 +3477,10 @@
     </row>
     <row r="149" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>390</v>
@@ -3441,32 +3488,32 @@
     </row>
     <row r="150" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B151" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C150" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="12" t="s">
+      <c r="C151" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B152" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>390</v>
@@ -3474,10 +3521,10 @@
     </row>
     <row r="153" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>390</v>
@@ -3485,32 +3532,32 @@
     </row>
     <row r="154" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B155" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C154" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="12" t="s">
+      <c r="C155" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B156" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>337</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>390</v>
@@ -3518,10 +3565,10 @@
     </row>
     <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>390</v>
@@ -3529,10 +3576,10 @@
     </row>
     <row r="158" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>390</v>
@@ -3540,10 +3587,10 @@
     </row>
     <row r="159" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>390</v>
@@ -3551,10 +3598,10 @@
     </row>
     <row r="160" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>390</v>
@@ -3562,10 +3609,10 @@
     </row>
     <row r="161" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>390</v>
@@ -3573,32 +3620,32 @@
     </row>
     <row r="162" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B163" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="13" t="s">
+      <c r="C163" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B164" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>394</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>390</v>
@@ -3606,17 +3653,25 @@
     </row>
     <row r="165" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B166" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
+      <c r="C166" s="16" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
@@ -6266,6 +6321,9 @@
     </row>
     <row r="1049" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1049" s="12"/>
+    </row>
+    <row r="1050" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1050" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ITALERTTEST\Unity\Assets\Editor\Localization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="UILocalizations" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
   <si>
     <t>Key</t>
   </si>
@@ -285,15 +280,6 @@
     <t>Ga Terug</t>
   </si>
   <si>
-    <t>LOBBY_BUTTON_COLOUR</t>
-  </si>
-  <si>
-    <t>Change Colour</t>
-  </si>
-  <si>
-    <t>Verander Kleur</t>
-  </si>
-  <si>
     <t>LOBBY_BUTTON_READY</t>
   </si>
   <si>
@@ -399,31 +385,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>COLOUR_PICKER_LABEL_TITLE</t>
-  </si>
-  <si>
-    <t>Change Player Colour</t>
-  </si>
-  <si>
-    <t>Verander Kleur Speler</t>
-  </si>
-  <si>
-    <t>COLOUR_PICKER_BUTTON_CANCEL</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
     <t>Annuleer</t>
-  </si>
-  <si>
-    <t>COLOUR_PICKER_BUTTON_SELECT</t>
-  </si>
-  <si>
-    <t>Set Colour</t>
-  </si>
-  <si>
-    <t>Zet Kleur</t>
   </si>
   <si>
     <t>SETTINGS_LABEL_RESOLUTION</t>
@@ -1220,6 +1185,27 @@
   </si>
   <si>
     <t>Final Score</t>
+  </si>
+  <si>
+    <t>Change Icon</t>
+  </si>
+  <si>
+    <t>Change Player Icon</t>
+  </si>
+  <si>
+    <t>Set Icon</t>
+  </si>
+  <si>
+    <t>ICON_PICKER_LABEL_TITLE</t>
+  </si>
+  <si>
+    <t>ICON_PICKER_BUTTON_CANCEL</t>
+  </si>
+  <si>
+    <t>ICON_PICKER_BUTTON_SELECT</t>
+  </si>
+  <si>
+    <t>LOBBY_BUTTON_ICON</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1419,7 +1405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,23 +1616,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.453125" customWidth="1"/>
-    <col min="2" max="2" width="51.81640625" customWidth="1"/>
-    <col min="3" max="3" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1670,7 +1656,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1670,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1684,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1698,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1712,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1726,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1740,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1754,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1782,7 +1768,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1782,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1810,7 +1796,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1824,7 +1810,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +1824,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1838,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1866,7 +1852,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1880,7 +1866,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1894,7 +1880,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1908,7 +1894,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1908,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -1936,7 +1922,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1950,7 +1936,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1964,7 +1950,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1978,7 +1964,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1992,7 +1978,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -2006,7 +1992,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2020,7 +2006,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -2034,7 +2020,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
@@ -2048,7 +2034,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -2062,7 +2048,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2076,7 +2062,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -2090,7 +2076,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -2104,7 +2090,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
@@ -2118,7 +2104,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2132,7 +2118,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
@@ -2146,132 +2132,132 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>62</v>
@@ -2280,350 +2266,350 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="9" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="9" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="9" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="9" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="9" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="9" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="9" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="9" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="9" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="9" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="9" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C63" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="9" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="9" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="9" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="9" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="9" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="9" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="9" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="9" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="9" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="9" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="9" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="9" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>62</v>
@@ -2632,3624 +2618,3624 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B86" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="B87" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="B89" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B90" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C95" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C97" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C97" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C104" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C106" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C110" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C136" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C140" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>295</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C100" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>343</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>296</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="B143" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="C147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C110" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+      <c r="B151" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C153" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C154" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C112" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C113" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C114" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C115" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+      <c r="B155" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B156" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C116" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+      <c r="C156" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B158" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C118" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="C158" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B160" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C120" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
+      <c r="C160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C161" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B162" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C127" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C129" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C130" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C131" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C133" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B134" s="14" t="s">
+      <c r="C162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C134" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C135" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C136" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C137" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C138" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C140" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C141" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B142" s="14" t="s">
+      <c r="B163" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C142" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C143" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C145" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B146" s="14" t="s">
+      <c r="C163" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C146" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C147" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C148" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B150" s="14" t="s">
+      <c r="B164" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C150" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C152" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C153" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C154" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C155" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C157" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B158" s="14" t="s">
+      <c r="B165" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C158" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C159" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C161" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C162" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C163" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C164" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>399</v>
-      </c>
       <c r="C165" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
     </row>
-    <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
     </row>
-    <row r="168" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
     </row>
-    <row r="169" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
     </row>
-    <row r="170" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
     </row>
-    <row r="171" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
     </row>
-    <row r="172" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
     </row>
-    <row r="173" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
     </row>
-    <row r="174" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
     </row>
-    <row r="175" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
     </row>
-    <row r="176" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
     </row>
-    <row r="177" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
     </row>
-    <row r="178" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
     </row>
-    <row r="179" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
     </row>
-    <row r="180" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
     </row>
-    <row r="181" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
     </row>
-    <row r="182" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
     </row>
-    <row r="183" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
     </row>
-    <row r="184" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
     </row>
-    <row r="185" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
     </row>
-    <row r="186" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
     </row>
-    <row r="187" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
     </row>
-    <row r="188" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
     </row>
-    <row r="189" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
     </row>
-    <row r="190" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
     </row>
-    <row r="191" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
     </row>
-    <row r="192" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
     </row>
-    <row r="193" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
     </row>
-    <row r="194" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
     </row>
-    <row r="195" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
     </row>
-    <row r="196" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
     </row>
-    <row r="197" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
     </row>
-    <row r="198" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
     </row>
-    <row r="199" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
     </row>
-    <row r="200" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
     </row>
-    <row r="201" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
     </row>
-    <row r="202" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
     </row>
-    <row r="203" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
     </row>
-    <row r="204" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
     </row>
-    <row r="205" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
     </row>
-    <row r="206" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
     </row>
-    <row r="207" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
     </row>
-    <row r="208" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
     </row>
-    <row r="209" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
     </row>
-    <row r="210" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
     </row>
-    <row r="211" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
     </row>
-    <row r="212" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
     </row>
-    <row r="213" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
     </row>
-    <row r="214" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
     </row>
-    <row r="215" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
     </row>
-    <row r="216" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
     </row>
-    <row r="217" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
     </row>
-    <row r="218" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
     </row>
-    <row r="219" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
     </row>
-    <row r="220" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
     </row>
-    <row r="221" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
     </row>
-    <row r="222" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
     </row>
-    <row r="224" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
     </row>
-    <row r="225" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
     </row>
-    <row r="226" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
     </row>
-    <row r="227" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
     </row>
-    <row r="228" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
     </row>
-    <row r="229" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
     </row>
-    <row r="230" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
     </row>
-    <row r="231" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
     </row>
-    <row r="232" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
     </row>
-    <row r="233" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
     </row>
-    <row r="234" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
     </row>
-    <row r="235" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
     </row>
-    <row r="236" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
     </row>
-    <row r="237" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
     </row>
-    <row r="238" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
     </row>
-    <row r="239" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
     </row>
-    <row r="240" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
     </row>
-    <row r="241" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
     </row>
-    <row r="242" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
     </row>
-    <row r="243" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
     </row>
-    <row r="244" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
     </row>
-    <row r="245" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
     </row>
-    <row r="246" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
     </row>
-    <row r="247" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
     </row>
-    <row r="248" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
     </row>
-    <row r="249" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
     </row>
-    <row r="250" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
     </row>
-    <row r="251" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
     </row>
-    <row r="252" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
     </row>
-    <row r="253" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
     </row>
-    <row r="254" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
     </row>
-    <row r="257" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
     </row>
-    <row r="258" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
     </row>
-    <row r="259" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
     </row>
-    <row r="260" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
     </row>
-    <row r="261" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
     </row>
-    <row r="262" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
     </row>
-    <row r="263" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
     </row>
-    <row r="264" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
     </row>
-    <row r="265" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
     </row>
-    <row r="266" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
     </row>
-    <row r="267" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
     </row>
-    <row r="268" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
     </row>
-    <row r="269" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
     </row>
-    <row r="270" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
     </row>
-    <row r="271" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
     </row>
-    <row r="272" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
     </row>
-    <row r="273" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
     </row>
-    <row r="274" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
     </row>
-    <row r="275" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
     </row>
-    <row r="276" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
     </row>
-    <row r="277" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
     </row>
-    <row r="278" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
     </row>
-    <row r="279" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
     </row>
-    <row r="280" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
     </row>
-    <row r="281" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
     </row>
-    <row r="282" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
     </row>
-    <row r="283" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
     </row>
-    <row r="284" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
     </row>
-    <row r="285" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
     </row>
-    <row r="286" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
     </row>
-    <row r="287" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
     </row>
-    <row r="288" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
     </row>
-    <row r="289" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
     </row>
-    <row r="290" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
     </row>
-    <row r="291" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
     </row>
-    <row r="292" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
     </row>
-    <row r="293" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
     </row>
-    <row r="294" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
     </row>
-    <row r="295" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
     </row>
-    <row r="296" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
     </row>
-    <row r="297" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
     </row>
-    <row r="298" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
     </row>
-    <row r="299" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
     </row>
-    <row r="300" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
     </row>
-    <row r="301" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
     </row>
-    <row r="302" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
     </row>
-    <row r="303" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
     </row>
-    <row r="304" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
     </row>
-    <row r="305" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
     </row>
-    <row r="306" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
     </row>
-    <row r="307" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
     </row>
-    <row r="308" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
     </row>
-    <row r="309" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
     </row>
-    <row r="310" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
     </row>
-    <row r="311" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
     </row>
-    <row r="312" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
     </row>
-    <row r="313" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
     </row>
-    <row r="314" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
     </row>
-    <row r="315" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
     </row>
-    <row r="316" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
     </row>
-    <row r="317" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
     </row>
-    <row r="318" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
     </row>
-    <row r="319" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
     </row>
-    <row r="320" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
     </row>
-    <row r="321" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
     </row>
-    <row r="322" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
     </row>
-    <row r="323" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
     </row>
-    <row r="324" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
     </row>
-    <row r="325" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
     </row>
-    <row r="326" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
     </row>
-    <row r="327" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
     </row>
-    <row r="328" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
     </row>
-    <row r="329" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
     </row>
-    <row r="330" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
     </row>
-    <row r="331" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
     </row>
-    <row r="332" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
     </row>
-    <row r="333" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
     </row>
-    <row r="334" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
     </row>
-    <row r="335" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
     </row>
-    <row r="336" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
     </row>
-    <row r="337" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
     </row>
-    <row r="338" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
     </row>
-    <row r="339" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
     </row>
-    <row r="340" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
     </row>
-    <row r="341" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
     </row>
-    <row r="342" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
     </row>
-    <row r="343" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
     </row>
-    <row r="344" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
     </row>
-    <row r="345" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
     </row>
-    <row r="346" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
     </row>
-    <row r="347" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
     </row>
-    <row r="348" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
     </row>
-    <row r="349" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="12"/>
     </row>
-    <row r="350" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="12"/>
     </row>
-    <row r="351" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="12"/>
     </row>
-    <row r="352" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="12"/>
     </row>
-    <row r="353" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="12"/>
     </row>
-    <row r="354" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="12"/>
     </row>
-    <row r="355" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="12"/>
     </row>
-    <row r="356" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="12"/>
     </row>
-    <row r="357" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="12"/>
     </row>
-    <row r="358" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="12"/>
     </row>
-    <row r="359" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="12"/>
     </row>
-    <row r="360" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="12"/>
     </row>
-    <row r="361" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="12"/>
     </row>
-    <row r="362" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="12"/>
     </row>
-    <row r="363" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="12"/>
     </row>
-    <row r="364" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="12"/>
     </row>
-    <row r="365" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="12"/>
     </row>
-    <row r="366" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="12"/>
     </row>
-    <row r="367" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="12"/>
     </row>
-    <row r="368" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="12"/>
     </row>
-    <row r="369" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="12"/>
     </row>
-    <row r="370" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="12"/>
     </row>
-    <row r="371" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="12"/>
     </row>
-    <row r="372" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="12"/>
     </row>
-    <row r="373" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="12"/>
     </row>
-    <row r="374" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="12"/>
     </row>
-    <row r="375" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="12"/>
     </row>
-    <row r="376" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="12"/>
     </row>
-    <row r="377" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="12"/>
     </row>
-    <row r="378" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="12"/>
     </row>
-    <row r="379" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="12"/>
     </row>
-    <row r="380" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="12"/>
     </row>
-    <row r="381" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="12"/>
     </row>
-    <row r="382" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="12"/>
     </row>
-    <row r="383" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="12"/>
     </row>
-    <row r="384" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="12"/>
     </row>
-    <row r="385" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="12"/>
     </row>
-    <row r="386" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="12"/>
     </row>
-    <row r="387" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="12"/>
     </row>
-    <row r="388" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="12"/>
     </row>
-    <row r="389" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="12"/>
     </row>
-    <row r="390" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="12"/>
     </row>
-    <row r="391" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="12"/>
     </row>
-    <row r="392" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="12"/>
     </row>
-    <row r="393" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="12"/>
     </row>
-    <row r="394" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="12"/>
     </row>
-    <row r="395" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="12"/>
     </row>
-    <row r="396" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="12"/>
     </row>
-    <row r="397" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
     </row>
-    <row r="398" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="12"/>
     </row>
-    <row r="399" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="12"/>
     </row>
-    <row r="400" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="12"/>
     </row>
-    <row r="401" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="12"/>
     </row>
-    <row r="402" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="12"/>
     </row>
-    <row r="403" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="12"/>
     </row>
-    <row r="404" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="12"/>
     </row>
-    <row r="405" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="12"/>
     </row>
-    <row r="406" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="12"/>
     </row>
-    <row r="407" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="12"/>
     </row>
-    <row r="408" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="12"/>
     </row>
-    <row r="409" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="12"/>
     </row>
-    <row r="410" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="12"/>
     </row>
-    <row r="411" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="12"/>
     </row>
-    <row r="412" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="12"/>
     </row>
-    <row r="413" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="12"/>
     </row>
-    <row r="414" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="12"/>
     </row>
-    <row r="415" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="12"/>
     </row>
-    <row r="416" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="12"/>
     </row>
-    <row r="417" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="12"/>
     </row>
-    <row r="418" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="12"/>
     </row>
-    <row r="419" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="12"/>
     </row>
-    <row r="420" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="12"/>
     </row>
-    <row r="421" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="12"/>
     </row>
-    <row r="422" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="12"/>
     </row>
-    <row r="423" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="12"/>
     </row>
-    <row r="424" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="12"/>
     </row>
-    <row r="425" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="12"/>
     </row>
-    <row r="426" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="12"/>
     </row>
-    <row r="427" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="12"/>
     </row>
-    <row r="428" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="12"/>
     </row>
-    <row r="429" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="12"/>
     </row>
-    <row r="430" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="12"/>
     </row>
-    <row r="431" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="12"/>
     </row>
-    <row r="432" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="12"/>
     </row>
-    <row r="433" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="12"/>
     </row>
-    <row r="893" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="12"/>
     </row>
-    <row r="894" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="12"/>
     </row>
-    <row r="895" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="12"/>
     </row>
-    <row r="896" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="12"/>
     </row>
-    <row r="897" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="12"/>
     </row>
-    <row r="898" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="12"/>
     </row>
-    <row r="899" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="12"/>
     </row>
-    <row r="900" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="12"/>
     </row>
-    <row r="901" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="12"/>
     </row>
-    <row r="902" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="12"/>
     </row>
-    <row r="903" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="12"/>
     </row>
-    <row r="904" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="12"/>
     </row>
-    <row r="905" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="12"/>
     </row>
-    <row r="906" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="12"/>
     </row>
-    <row r="907" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="12"/>
     </row>
-    <row r="908" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="12"/>
     </row>
-    <row r="909" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="12"/>
     </row>
-    <row r="910" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="12"/>
     </row>
-    <row r="911" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="12"/>
     </row>
-    <row r="912" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="12"/>
     </row>
-    <row r="913" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="12"/>
     </row>
-    <row r="914" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="12"/>
     </row>
-    <row r="915" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="12"/>
     </row>
-    <row r="916" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="12"/>
     </row>
-    <row r="917" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="12"/>
     </row>
-    <row r="918" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="12"/>
     </row>
-    <row r="919" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="12"/>
     </row>
-    <row r="920" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="12"/>
     </row>
-    <row r="921" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="12"/>
     </row>
-    <row r="922" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="12"/>
     </row>
-    <row r="923" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="12"/>
     </row>
-    <row r="924" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="12"/>
     </row>
-    <row r="925" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="12"/>
     </row>
-    <row r="926" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="12"/>
     </row>
-    <row r="927" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="12"/>
     </row>
-    <row r="928" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="12"/>
     </row>
-    <row r="929" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="12"/>
     </row>
-    <row r="930" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="12"/>
     </row>
-    <row r="931" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="12"/>
     </row>
-    <row r="932" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="12"/>
     </row>
-    <row r="933" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="12"/>
     </row>
-    <row r="934" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="12"/>
     </row>
-    <row r="935" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="12"/>
     </row>
-    <row r="936" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="12"/>
     </row>
-    <row r="937" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="12"/>
     </row>
-    <row r="938" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="12"/>
     </row>
-    <row r="939" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="12"/>
     </row>
-    <row r="940" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="12"/>
     </row>
-    <row r="941" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="12"/>
     </row>
-    <row r="942" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="12"/>
     </row>
-    <row r="943" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="12"/>
     </row>
-    <row r="944" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="12"/>
     </row>
-    <row r="945" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="12"/>
     </row>
-    <row r="946" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="12"/>
     </row>
-    <row r="947" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="12"/>
     </row>
-    <row r="948" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="12"/>
     </row>
-    <row r="949" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="12"/>
     </row>
-    <row r="950" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="12"/>
     </row>
-    <row r="951" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="12"/>
     </row>
-    <row r="952" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="12"/>
     </row>
-    <row r="953" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="12"/>
     </row>
-    <row r="954" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="12"/>
     </row>
-    <row r="955" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="12"/>
     </row>
-    <row r="956" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="12"/>
     </row>
-    <row r="957" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="12"/>
     </row>
-    <row r="958" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="12"/>
     </row>
-    <row r="959" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="12"/>
     </row>
-    <row r="960" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="12"/>
     </row>
-    <row r="961" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="12"/>
     </row>
-    <row r="962" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="12"/>
     </row>
-    <row r="963" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="12"/>
     </row>
-    <row r="964" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="12"/>
     </row>
-    <row r="965" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="12"/>
     </row>
-    <row r="966" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="12"/>
     </row>
-    <row r="967" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="12"/>
     </row>
-    <row r="968" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="12"/>
     </row>
-    <row r="969" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="12"/>
     </row>
-    <row r="970" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="12"/>
     </row>
-    <row r="971" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="12"/>
     </row>
-    <row r="972" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="12"/>
     </row>
-    <row r="973" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="12"/>
     </row>
-    <row r="974" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="12"/>
     </row>
-    <row r="975" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="12"/>
     </row>
-    <row r="976" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="12"/>
     </row>
-    <row r="977" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="12"/>
     </row>
-    <row r="978" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="12"/>
     </row>
-    <row r="979" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="12"/>
     </row>
-    <row r="980" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="12"/>
     </row>
-    <row r="981" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="12"/>
     </row>
-    <row r="982" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="12"/>
     </row>
-    <row r="983" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="12"/>
     </row>
-    <row r="984" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="12"/>
     </row>
-    <row r="985" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="12"/>
     </row>
-    <row r="986" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="12"/>
     </row>
-    <row r="987" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="12"/>
     </row>
-    <row r="988" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="12"/>
     </row>
-    <row r="989" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="12"/>
     </row>
-    <row r="990" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="12"/>
     </row>
-    <row r="991" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="12"/>
     </row>
-    <row r="992" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="12"/>
     </row>
-    <row r="993" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="12"/>
     </row>
-    <row r="994" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="12"/>
     </row>
-    <row r="995" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="12"/>
     </row>
-    <row r="996" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="12"/>
     </row>
-    <row r="997" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="12"/>
     </row>
-    <row r="998" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="12"/>
     </row>
-    <row r="999" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="12"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="12"/>
     </row>
-    <row r="1001" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="12"/>
     </row>
-    <row r="1002" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="12"/>
     </row>
-    <row r="1003" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="12"/>
     </row>
-    <row r="1004" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="12"/>
     </row>
-    <row r="1005" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="12"/>
     </row>
-    <row r="1006" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="12"/>
     </row>
-    <row r="1007" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1007" s="12"/>
     </row>
-    <row r="1008" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1008" s="12"/>
     </row>
-    <row r="1009" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1009" s="12"/>
     </row>
-    <row r="1010" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1010" s="12"/>
     </row>
-    <row r="1011" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1011" s="12"/>
     </row>
-    <row r="1012" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1012" s="12"/>
     </row>
-    <row r="1013" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1013" s="12"/>
     </row>
-    <row r="1014" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1014" s="12"/>
     </row>
-    <row r="1015" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1015" s="12"/>
     </row>
-    <row r="1016" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1016" s="12"/>
     </row>
-    <row r="1017" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1017" s="12"/>
     </row>
-    <row r="1018" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1018" s="12"/>
     </row>
-    <row r="1019" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1019" s="12"/>
     </row>
-    <row r="1020" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1020" s="12"/>
     </row>
-    <row r="1021" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1021" s="12"/>
     </row>
-    <row r="1022" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1022" s="12"/>
     </row>
-    <row r="1023" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1023" s="12"/>
     </row>
-    <row r="1024" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1024" s="12"/>
     </row>
-    <row r="1025" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1025" s="12"/>
     </row>
-    <row r="1026" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1026" s="12"/>
     </row>
-    <row r="1027" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1027" s="12"/>
     </row>
-    <row r="1028" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1028" s="12"/>
     </row>
-    <row r="1029" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1029" s="12"/>
     </row>
-    <row r="1030" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1030" s="12"/>
     </row>
-    <row r="1031" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1031" s="12"/>
     </row>
-    <row r="1032" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1032" s="12"/>
     </row>
-    <row r="1033" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1033" s="12"/>
     </row>
-    <row r="1034" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1034" s="12"/>
     </row>
-    <row r="1035" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1035" s="12"/>
     </row>
-    <row r="1036" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1036" s="12"/>
     </row>
-    <row r="1037" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1037" s="12"/>
     </row>
-    <row r="1038" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1038" s="12"/>
     </row>
-    <row r="1039" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1039" s="12"/>
     </row>
-    <row r="1040" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1040" s="12"/>
     </row>
-    <row r="1041" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1041" s="12"/>
     </row>
-    <row r="1042" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1042" s="12"/>
     </row>
-    <row r="1043" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1043" s="12"/>
     </row>
-    <row r="1044" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1044" s="12"/>
     </row>
-    <row r="1045" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1045" s="12"/>
     </row>
-    <row r="1046" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1046" s="12"/>
     </row>
-    <row r="1047" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1047" s="12"/>
     </row>
-    <row r="1048" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1048" s="12"/>
     </row>
-    <row r="1049" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1049" s="12"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\it-alert\Unity\Assets\Editor\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34338979-2E37-4881-8A10-0FF33431DD2B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{052D1EF8-FD3B-4F79-91DB-989A28BA1B39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,10 +1226,10 @@
     <t>VOICE_PRESS_TO_TALK</t>
   </si>
   <si>
-    <t>Druk hier om te praten</t>
-  </si>
-  <si>
-    <t>Press here to talk</t>
+    <t>Press to talk</t>
+  </si>
+  <si>
+    <t>Druk om te praten</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:U1050"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2126,10 +2126,10 @@
         <v>400</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>

--- a/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
+++ b/Unity/Assets/Editor/Localization/IT Alert UI Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\it-alert\Unity\Assets\Editor\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8739041-3A6A-4D8A-B540-ABC03F53A4FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0923A974-038B-44D0-A0B6-59C20BCBB80D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="600" windowWidth="27500" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,9 +1190,6 @@
     <t>GAME_OVER_FINAL_SCORE</t>
   </si>
   <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
     <t>Final Score</t>
   </si>
   <si>
@@ -1230,6 +1227,9 @@
   </si>
   <si>
     <t>Druk om te praten</t>
+  </si>
+  <si>
+    <t>Health Multiplier</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>392</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2399,18 +2399,18 @@
     </row>
     <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>393</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>123</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>125</v>
@@ -3656,7 +3656,7 @@
         <v>387</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>385</v>
@@ -3667,7 +3667,7 @@
         <v>388</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>385</v>
